--- a/generalRGBmod/discontinued/pcbs/v2/BOM_n64rgbv2.xlsx
+++ b/generalRGBmod/discontinued/pcbs/v2/BOM_n64rgbv2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\Git\Eigenes\n64rgb\generalRGBmod\Main-PCB\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Peter\Documents\Workspaces\GitHub\n64rgb\generalRGBmod\discontinued\pcbs\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA9FA3-96EF-4008-B902-F2DE1428C868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B8D142-EDC6-43C6-8957-3B6768B0B227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="2355" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>MPNs are only suggestions! You can use equivalent components, too.</t>
   </si>
   <si>
-    <t xml:space="preserve">5M240ZT100C4N </t>
-  </si>
-  <si>
     <t>TQFP100</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
   </si>
   <si>
     <t>Close J1</t>
-  </si>
-  <si>
-    <t>Alternative to 5M570ZT100 with less LEs, leave J1 open</t>
   </si>
   <si>
     <t>Alternative to EPM570T100C5N with less Les, leave J1 open</t>
@@ -397,13 +391,19 @@
     <t>5M570ZT100C5N</t>
   </si>
   <si>
-    <t>Close J1, Alternative part: 5M570ZT100C4N</t>
-  </si>
-  <si>
     <t>Value of MPN reference differs to ideal value to allow for negative margin!</t>
   </si>
   <si>
     <t>GRM188R61E106KA73D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5M240ZT100C5N </t>
+  </si>
+  <si>
+    <t>Alternative to 5M240ZT100 with more LEs, Close J1, Alternative part: 5M570ZT100C4N</t>
+  </si>
+  <si>
+    <t>Recommended part, leave J1 open, Alternative part: 5M240ZT100C4N</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1289,7 @@
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1306,86 +1306,86 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1396,17 +1396,17 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1415,26 +1415,26 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1448,17 +1448,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1467,20 +1467,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1511,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1533,20 +1533,20 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1577,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1621,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1665,13 +1665,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1679,17 +1679,17 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1752,63 +1752,63 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1842,17 +1842,17 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1864,34 +1864,34 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2016,7 +2016,7 @@
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,76 +2024,76 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2109,17 +2109,17 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2128,26 +2128,26 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2161,17 +2161,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2180,20 +2180,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2202,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2224,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2246,20 +2246,20 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2312,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2356,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2370,17 +2370,17 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2389,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2443,63 +2443,63 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2514,16 +2514,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2534,17 +2534,17 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2556,34 +2556,34 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
